--- a/biology/Botanique/Amphiblemma_letouzeyi/Amphiblemma_letouzeyi.xlsx
+++ b/biology/Botanique/Amphiblemma_letouzeyi/Amphiblemma_letouzeyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphiblemma letouzeyi est une espèce de plantes de la famille de Melastomataceae et du genre Amphiblemma, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique letouzeyi rend hommage à René Letouzey qui récolta l'holotype le 12 janvier 1974[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique letouzeyi rend hommage à René Letouzey qui récolta l'holotype le 12 janvier 1974.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbrisseau pouvant atteindre 80 cm de hauteur. Il est doté de longs poils rougeâtres à la base du limbe, dont le dessus est vert foncé, et de fleurs roses avec des poils glanduleux au bord du calice[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau pouvant atteindre 80 cm de hauteur. Il est doté de longs poils rougeâtres à la base du limbe, dont le dessus est vert foncé, et de fleurs roses avec des poils glanduleux au bord du calice.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, relativement rare, l'espèce a été observée dans la région du Sud, notamment sur la colline Nkol Tsia, à 18 km au nord-ouest de Bipindi, au milieu d'un chaos rocheux boisé et arbustif (inselberg), à une altitude de 488 m[2].
-N'ayant été observée que trois fois sur un même site ne dépassant pas 4 km2, elle pourrait être menacée par les projets d'extension de la zone de Kribi[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, relativement rare, l'espèce a été observée dans la région du Sud, notamment sur la colline Nkol Tsia, à 18 km au nord-ouest de Bipindi, au milieu d'un chaos rocheux boisé et arbustif (inselberg), à une altitude de 488 m.
+N'ayant été observée que trois fois sur un même site ne dépassant pas 4 km2, elle pourrait être menacée par les projets d'extension de la zone de Kribi.
 </t>
         </is>
       </c>
